--- a/docs/influence/auto/anger/gw_full_nlp_n5-25_oter_anger_NN.xlsx
+++ b/docs/influence/auto/anger/gw_full_nlp_n5-25_oter_anger_NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/cat/Users/dend/prog/say_sila/docs/influence/auto/anger/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{54BAA21F-114D-C349-8D6C-920A58B6EA19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DB19EC33-ABC0-134F-BA46-E0C0F864F944}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60140" yWindow="8160" windowWidth="32720" windowHeight="16940"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="32480" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="gw_full_nlp_n5-25_oter_anger_NN" sheetId="1" r:id="rId1"/>
@@ -942,7 +942,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" activeCellId="1" sqref="A6:XFD11 A13:XFD13"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1032,16 +1032,16 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>-0.13380800000000001</v>
+        <v>-0.139989</v>
       </c>
       <c r="F2">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>0.13427700000000001</v>
+        <v>0.13161900000000001</v>
       </c>
       <c r="W2">
-        <v>0.127828</v>
+        <v>0.128076</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1058,16 +1058,16 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>5.4223E-2</v>
+        <v>5.0680000000000003E-2</v>
       </c>
       <c r="F3">
         <v>39</v>
       </c>
       <c r="K3">
-        <v>0.16501099999999999</v>
+        <v>0.161324</v>
       </c>
       <c r="W3">
-        <v>0.123115</v>
+        <v>0.123608</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1084,19 +1084,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>0.54501500000000003</v>
+        <v>0.50140499999999999</v>
       </c>
       <c r="F4">
         <v>39</v>
       </c>
       <c r="G4">
-        <v>0.56876000000000004</v>
+        <v>0.34389500000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.162221</v>
       </c>
       <c r="K4">
-        <v>0.136105</v>
+        <v>0.128216</v>
       </c>
       <c r="W4">
-        <v>1.0557E-2</v>
+        <v>8.2529999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1113,48 +1116,51 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0.60813200000000001</v>
+        <v>0.59726999999999997</v>
       </c>
       <c r="F5">
         <v>39</v>
       </c>
       <c r="G5">
-        <v>0.53794600000000004</v>
+        <v>0.51836199999999999</v>
       </c>
       <c r="K5">
-        <v>0.221081</v>
+        <v>0.20801900000000001</v>
       </c>
       <c r="W5">
-        <v>-1.8519999999999999E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+        <v>5.1180000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.70052199999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.54411299999999996</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.148253</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1.5949000000000001E-2</v>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0.68357599999999996</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>0.37781999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.12236900000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.135077</v>
+      </c>
+      <c r="W6">
+        <v>1.5656E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1171,19 +1177,22 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>0.75244</v>
+        <v>0.73653299999999999</v>
       </c>
       <c r="F7" s="1">
         <v>39</v>
       </c>
       <c r="G7" s="1">
-        <v>0.49529499999999999</v>
+        <v>0.350157</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.103294</v>
       </c>
       <c r="K7" s="1">
-        <v>0.14021900000000001</v>
+        <v>0.133048</v>
       </c>
       <c r="W7" s="1">
-        <v>3.0301000000000002E-2</v>
+        <v>3.0137000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1200,19 +1209,22 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>0.76854599999999995</v>
+        <v>0.75483199999999995</v>
       </c>
       <c r="F8" s="1">
         <v>39</v>
       </c>
       <c r="G8" s="1">
-        <v>0.44491599999999998</v>
+        <v>0.31860300000000003</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.7749999999999995E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>0.133406</v>
+        <v>0.13125800000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>4.3767E-2</v>
+        <v>4.3320999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1229,19 +1241,19 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>0.78023500000000001</v>
+        <v>0.78091500000000003</v>
       </c>
       <c r="F9" s="1">
         <v>39</v>
       </c>
       <c r="G9" s="1">
-        <v>0.39070100000000002</v>
+        <v>0.38547100000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0.15332699999999999</v>
+        <v>0.14732500000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>5.1781000000000001E-2</v>
+        <v>5.4004000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1258,19 +1270,19 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>0.72134399999999999</v>
+        <v>0.72594899999999996</v>
       </c>
       <c r="F10" s="1">
         <v>39</v>
       </c>
       <c r="G10" s="1">
-        <v>0.30836200000000002</v>
+        <v>0.303618</v>
       </c>
       <c r="K10" s="1">
-        <v>0.12705</v>
+        <v>0.12481200000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>7.1093000000000003E-2</v>
+        <v>7.2359000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1287,48 +1299,48 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>0.72417900000000002</v>
+        <v>0.72818799999999995</v>
       </c>
       <c r="F11" s="1">
         <v>39</v>
       </c>
       <c r="G11" s="1">
-        <v>0.30924299999999999</v>
+        <v>0.30460300000000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0.12923100000000001</v>
+        <v>0.126022</v>
       </c>
       <c r="W11" s="1">
-        <v>7.0688000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12">
+        <v>7.2172E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>0.69864599999999999</v>
-      </c>
-      <c r="F12">
-        <v>39</v>
-      </c>
-      <c r="G12">
-        <v>0.265737</v>
-      </c>
-      <c r="K12">
-        <v>0.15495500000000001</v>
-      </c>
-      <c r="W12">
-        <v>7.4968999999999994E-2</v>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.70253500000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.26140099999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.15115000000000001</v>
+      </c>
+      <c r="W12" s="1">
+        <v>7.6502000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1345,19 +1357,19 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>0.706376</v>
+        <v>0.70993499999999998</v>
       </c>
       <c r="F13" s="1">
         <v>39</v>
       </c>
       <c r="G13" s="1">
-        <v>0.27889599999999998</v>
+        <v>0.27426699999999998</v>
       </c>
       <c r="K13" s="1">
-        <v>0.15631200000000001</v>
+        <v>0.152584</v>
       </c>
       <c r="W13" s="1">
-        <v>7.4531E-2</v>
+        <v>7.6065999999999995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -1374,19 +1386,19 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>0.67842199999999997</v>
+        <v>0.68874999999999997</v>
       </c>
       <c r="F14">
         <v>39</v>
       </c>
       <c r="G14">
-        <v>0.29387999999999997</v>
+        <v>0.28818100000000002</v>
       </c>
       <c r="K14">
-        <v>0.13444800000000001</v>
+        <v>0.13259799999999999</v>
       </c>
       <c r="W14">
-        <v>7.7730999999999995E-2</v>
+        <v>7.9020000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1403,19 +1415,19 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>0.64534199999999997</v>
+        <v>0.66695000000000004</v>
       </c>
       <c r="F15">
         <v>39</v>
       </c>
       <c r="G15">
-        <v>0.26745200000000002</v>
+        <v>0.26180199999999998</v>
       </c>
       <c r="K15">
-        <v>0.12697700000000001</v>
+        <v>0.12664600000000001</v>
       </c>
       <c r="W15">
-        <v>8.5147E-2</v>
+        <v>8.6053000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -1432,19 +1444,19 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>0.61013799999999996</v>
+        <v>0.624641</v>
       </c>
       <c r="F16">
         <v>39</v>
       </c>
       <c r="G16">
-        <v>0.24954399999999999</v>
+        <v>0.24431</v>
       </c>
       <c r="K16">
-        <v>0.10124900000000001</v>
+        <v>0.10219200000000001</v>
       </c>
       <c r="W16">
-        <v>9.5693E-2</v>
+        <v>9.6202999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -1461,19 +1473,19 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>0.55925800000000003</v>
+        <v>0.580766</v>
       </c>
       <c r="F17">
         <v>39</v>
       </c>
       <c r="G17">
-        <v>0.21995300000000001</v>
+        <v>0.21432000000000001</v>
       </c>
       <c r="K17">
-        <v>0.10058499999999999</v>
+        <v>0.104239</v>
       </c>
       <c r="W17">
-        <v>0.10201200000000001</v>
+        <v>0.101949</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -1490,19 +1502,19 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>0.49908999999999998</v>
+        <v>0.50804099999999996</v>
       </c>
       <c r="F18">
         <v>39</v>
       </c>
       <c r="G18">
-        <v>0.19094800000000001</v>
+        <v>0.18524099999999999</v>
       </c>
       <c r="K18">
-        <v>9.3382000000000007E-2</v>
+        <v>9.8392999999999994E-2</v>
       </c>
       <c r="W18">
-        <v>0.109842</v>
+        <v>0.10946699999999999</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -1519,16 +1531,19 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>0.48262500000000003</v>
+        <v>0.41377399999999998</v>
       </c>
       <c r="F19">
         <v>39</v>
       </c>
       <c r="G19">
-        <v>0.17985100000000001</v>
+        <v>0.15631600000000001</v>
+      </c>
+      <c r="K19">
+        <v>9.0805999999999998E-2</v>
       </c>
       <c r="W19">
-        <v>0.13384199999999999</v>
+        <v>0.11706</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -1545,16 +1560,16 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>0.48929400000000001</v>
+        <v>0.48672599999999999</v>
       </c>
       <c r="F20">
         <v>39</v>
       </c>
       <c r="G20">
-        <v>0.186082</v>
+        <v>0.18254400000000001</v>
       </c>
       <c r="W20">
-        <v>0.13475699999999999</v>
+        <v>0.135047</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -1571,16 +1586,16 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>0.48834499999999997</v>
+        <v>0.49192200000000003</v>
       </c>
       <c r="F21">
         <v>39</v>
       </c>
       <c r="G21">
-        <v>0.193551</v>
+        <v>0.190412</v>
       </c>
       <c r="W21">
-        <v>0.13508899999999999</v>
+        <v>0.13528299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -1597,16 +1612,16 @@
         <v>25</v>
       </c>
       <c r="E22">
-        <v>0.49062499999999998</v>
+        <v>0.49446299999999999</v>
       </c>
       <c r="F22">
         <v>39</v>
       </c>
       <c r="G22">
-        <v>0.196992</v>
+        <v>0.193795</v>
       </c>
       <c r="W22">
-        <v>0.13366500000000001</v>
+        <v>0.13387299999999999</v>
       </c>
     </row>
   </sheetData>
